--- a/Simulacion_DGS/Unigrid_Info_2021.xlsx
+++ b/Simulacion_DGS/Unigrid_Info_2021.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\Desktop\DOCTORADO\UniGrid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\GitHub\RNPF\Simulacion_DGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF4475-2C3A-4FD8-8460-485A92F2FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7368" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODO 632" sheetId="1" r:id="rId1"/>
-    <sheet name="NODO 652" sheetId="2" r:id="rId2"/>
-    <sheet name="NODO 611" sheetId="3" r:id="rId3"/>
-    <sheet name="NODO 675" sheetId="4" r:id="rId4"/>
+    <sheet name="NODO 675" sheetId="4" r:id="rId2"/>
+    <sheet name="NODO671" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>TRIFASICO</t>
   </si>
@@ -48,39 +47,6 @@
   <si>
     <t>RESISITENCIA
 DL2090 (Ω)</t>
-  </si>
-  <si>
-    <t>MONOFÁSICO</t>
-  </si>
-  <si>
-    <r>
-      <t>CAPACITANCIA
-DL2021(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F)</t>
-    </r>
-  </si>
-  <si>
-    <t>RESISTENCIA
-DL1017RHD
-(Ω)</t>
   </si>
   <si>
     <t>FASEC</t>
@@ -111,56 +77,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> INDUCTANCIA 
-DL2091 (H)</t>
-  </si>
-  <si>
-    <t>(40.261+1.24j)</t>
-  </si>
-  <si>
     <t>Impedancia</t>
   </si>
   <si>
-    <t>Potencia Activa</t>
-  </si>
-  <si>
-    <t>Potencia Reactiva</t>
-  </si>
-  <si>
-    <t>(232.74+41.56j)</t>
-  </si>
-  <si>
-    <t>(116.498+23.895j)</t>
-  </si>
-  <si>
-    <t>Reactancia  ind</t>
-  </si>
-  <si>
-    <t>Reactancia Cap</t>
-  </si>
-  <si>
-    <t>Potencia Reactiva ind</t>
-  </si>
-  <si>
-    <t>Potencia Reactiva cap</t>
-  </si>
-  <si>
-    <t>(109.32j)</t>
-  </si>
-  <si>
-    <t>(113.09j)</t>
-  </si>
-  <si>
-    <t>(-681.89j)</t>
-  </si>
-  <si>
-    <t>(673.244j)</t>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>RESISTIVA</t>
+  </si>
+  <si>
+    <t>inductiva</t>
+  </si>
+  <si>
+    <t>RESISITENCIA(Ω)</t>
+  </si>
+  <si>
+    <t>INDUCTANCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,6 +142,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +158,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225901</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2929F55F-CB30-C43D-1616-EB5660A2AE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4616926" y="381000"/>
+          <a:ext cx="6346349" cy="4114799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,27 +488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -511,38 +516,29 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="C4">
-        <v>121.4</v>
-      </c>
-      <c r="D4">
-        <v>240.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -550,66 +546,21 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="C6">
-        <v>1.57</v>
-      </c>
-      <c r="D6">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>357.33</v>
-      </c>
-      <c r="C11">
-        <v>118.61</v>
-      </c>
-      <c r="D11">
-        <v>59.959000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>24.32</v>
-      </c>
-      <c r="D12">
-        <v>10.706</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -619,21 +570,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -641,36 +595,28 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>42.3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -678,192 +624,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C3514F-5B79-49B1-A03A-D175B5A7D9AE}">
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>54.2</v>
+      <c r="B5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.58899999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3.89</v>
-      </c>
-      <c r="C4">
-        <v>3.89</v>
-      </c>
-      <c r="D4">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>131.72300000000001</v>
-      </c>
-      <c r="C13">
-        <v>127.33</v>
-      </c>
-      <c r="D13">
-        <v>131.72300000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>21.11</v>
-      </c>
-      <c r="C14">
-        <v>21.11</v>
-      </c>
-      <c r="D14">
-        <v>21.38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Simulacion_DGS/Unigrid_Info_2021.xlsx
+++ b/Simulacion_DGS/Unigrid_Info_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\GitHub\RNPF\Simulacion_DGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF4475-2C3A-4FD8-8460-485A92F2FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDD525-9035-4068-B5A6-CB2C39B8E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODO 632" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>TRIFASICO</t>
   </si>
@@ -75,9 +75,6 @@
       </rPr>
       <t>F)</t>
     </r>
-  </si>
-  <si>
-    <t>Impedancia</t>
   </si>
   <si>
     <t>pos</t>
@@ -122,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,19 +127,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,65 +518,87 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="4">
+        <v>4.46</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.46</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.46</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +653,15 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,10 +670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C3514F-5B79-49B1-A03A-D175B5A7D9AE}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,72 +681,78 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B10" s="2">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.58899999999999997</v>
       </c>
     </row>

--- a/Simulacion_DGS/Unigrid_Info_2021.xlsx
+++ b/Simulacion_DGS/Unigrid_Info_2021.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS\Documents\GitHub\RNPF\Simulacion_DGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDD525-9035-4068-B5A6-CB2C39B8E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2F821E-0036-4C46-838F-84A2BAF6D19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODO 632" sheetId="1" r:id="rId1"/>
     <sheet name="NODO 675" sheetId="4" r:id="rId2"/>
     <sheet name="NODO671" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>TRIFASICO</t>
   </si>
@@ -91,12 +102,54 @@
   <si>
     <t>INDUCTANCIA</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P Consumo(KW)</t>
+  </si>
+  <si>
+    <t>Q(KVAR)</t>
+  </si>
+  <si>
+    <t>TABLERO</t>
+  </si>
+  <si>
+    <t>CARGA</t>
+  </si>
+  <si>
+    <t>P Consumo(W)</t>
+  </si>
+  <si>
+    <t>Q(VAR)</t>
+  </si>
+  <si>
+    <t>632-671</t>
+  </si>
+  <si>
+    <t>671-692</t>
+  </si>
+  <si>
+    <t>671-684</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +162,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +219,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,15 +241,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>225901</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259519</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>509868</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -218,7 +280,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4616926" y="381000"/>
+          <a:off x="6938225" y="0"/>
           <a:ext cx="6346349" cy="4114799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -504,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,9 +578,10 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,7 +590,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -540,7 +603,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -555,7 +618,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -570,7 +633,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -585,7 +648,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -599,6 +662,139 @@
         <v>4.46</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2.5690000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="D10">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <f>(B16-B10)*1000-G16</f>
+        <v>217.29</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:I10" si="0">(C16-C10)*1000-H16</f>
+        <v>107.93</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>182.26000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1.3259999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.0629999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <f>(B17)*1000</f>
+        <v>12.409999999999998</v>
+      </c>
+      <c r="H11">
+        <f>(C17)*1000</f>
+        <v>28.97</v>
+      </c>
+      <c r="I11">
+        <f>(D17)*1000</f>
+        <v>5.1000000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.26547999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.1348</v>
+      </c>
+      <c r="D16">
+        <v>0.18656</v>
+      </c>
+      <c r="G16">
+        <v>22.5</v>
+      </c>
+      <c r="H16">
+        <v>22.62</v>
+      </c>
+      <c r="I16">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.8969999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>5.1000000000000004E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,7 +804,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -663,6 +859,15 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>-0.0446*1000/3</f>
+        <v>-14.866666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -670,29 +875,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C3514F-5B79-49B1-A03A-D175B5A7D9AE}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -700,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -708,7 +914,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -716,7 +922,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -724,7 +930,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -732,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -740,7 +946,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -748,12 +954,198 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C15">
+        <v>8.14E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.1837</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.1128</v>
+      </c>
+      <c r="D16">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1.627E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.1809999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.1091</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="C22">
+        <v>4.79E-3</v>
+      </c>
+      <c r="D22">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>5.3600000000000002E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>1.5709999999999998E-2</v>
+      </c>
+      <c r="D28">
+        <v>9.3799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B15,B21,B27)*1000 -F15-F21-F27</f>
+        <v>156.63</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C15,C21,C27)*1000 -G15-G21-G27</f>
+        <v>69.210000000000008</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D15,D21,D27)*1000 -H15-H21-H27</f>
+        <v>292.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B16,B22,B28)*1000</f>
+        <v>96.809999999999988</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C33:D34" si="0">SUM(C16,C22,C28)*1000</f>
+        <v>117.59</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D16,D22,D28)*1000</f>
+        <v>670.38</v>
       </c>
     </row>
   </sheetData>
